--- a/data_year/zb/对外经济贸易/进口货物分类金额(按SITC分类).xlsx
+++ b/data_year/zb/对外经济贸易/进口货物分类金额(按SITC分类).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,967 +503,599 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46739</v>
+        <v>433849.922</v>
       </c>
       <c r="C2" t="n">
-        <v>977</v>
+        <v>8740.324000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>30213</v>
+        <v>149699.773</v>
       </c>
       <c r="E2" t="n">
-        <v>178355</v>
+        <v>962394.084</v>
       </c>
       <c r="F2" t="n">
-        <v>41807</v>
+        <v>131278.148</v>
       </c>
       <c r="G2" t="n">
-        <v>1653</v>
+        <v>18435.024</v>
       </c>
       <c r="H2" t="n">
-        <v>91931</v>
+        <v>549420.649</v>
       </c>
       <c r="I2" t="n">
-        <v>12751</v>
+        <v>113560.489</v>
       </c>
       <c r="J2" t="n">
-        <v>20637</v>
+        <v>188999.9</v>
       </c>
       <c r="K2" t="n">
-        <v>225094</v>
+        <v>1396247</v>
       </c>
       <c r="L2" t="n">
-        <v>20003</v>
+        <v>212111.239</v>
       </c>
       <c r="M2" t="n">
-        <v>4758</v>
+        <v>21570.29</v>
       </c>
       <c r="N2" t="n">
-        <v>364</v>
+        <v>2428.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45743</v>
+        <v>604269</v>
       </c>
       <c r="C3" t="n">
-        <v>763</v>
+        <v>11112</v>
       </c>
       <c r="D3" t="n">
-        <v>32104</v>
+        <v>181106</v>
       </c>
       <c r="E3" t="n">
-        <v>197810</v>
+        <v>1139215</v>
       </c>
       <c r="F3" t="n">
-        <v>41938</v>
+        <v>150304</v>
       </c>
       <c r="G3" t="n">
-        <v>1676</v>
+        <v>49513</v>
       </c>
       <c r="H3" t="n">
-        <v>107015</v>
+        <v>630570</v>
       </c>
       <c r="I3" t="n">
-        <v>15076</v>
+        <v>127722</v>
       </c>
       <c r="J3" t="n">
-        <v>17466</v>
+        <v>275776</v>
       </c>
       <c r="K3" t="n">
-        <v>243553</v>
+        <v>1743484</v>
       </c>
       <c r="L3" t="n">
-        <v>22127</v>
+        <v>284923</v>
       </c>
       <c r="M3" t="n">
-        <v>4976</v>
+        <v>28774</v>
       </c>
       <c r="N3" t="n">
-        <v>412</v>
+        <v>3685</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>49271</v>
+        <v>634934.183</v>
       </c>
       <c r="C4" t="n">
-        <v>1625</v>
+        <v>12527.041</v>
       </c>
       <c r="D4" t="n">
-        <v>39036</v>
+        <v>179286.808</v>
       </c>
       <c r="E4" t="n">
-        <v>245899</v>
+        <v>1183470.816</v>
       </c>
       <c r="F4" t="n">
-        <v>48489</v>
+        <v>145952.546</v>
       </c>
       <c r="G4" t="n">
-        <v>1564</v>
+        <v>68772.02</v>
       </c>
       <c r="H4" t="n">
-        <v>137010</v>
+        <v>652940.6800000001</v>
       </c>
       <c r="I4" t="n">
-        <v>19801</v>
+        <v>136518.762</v>
       </c>
       <c r="J4" t="n">
-        <v>19285</v>
+        <v>313084.909</v>
       </c>
       <c r="K4" t="n">
-        <v>295170</v>
+        <v>1818405</v>
       </c>
       <c r="L4" t="n">
-        <v>22736</v>
+        <v>269659.516</v>
       </c>
       <c r="M4" t="n">
-        <v>5238</v>
+        <v>35259.844</v>
       </c>
       <c r="N4" t="n">
-        <v>387</v>
+        <v>4402.873</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72763</v>
+        <v>658080.843</v>
       </c>
       <c r="C5" t="n">
-        <v>3000</v>
+        <v>10339.354</v>
       </c>
       <c r="D5" t="n">
-        <v>48975</v>
+        <v>190304.46</v>
       </c>
       <c r="E5" t="n">
-        <v>339996</v>
+        <v>1291908.625</v>
       </c>
       <c r="F5" t="n">
-        <v>63902</v>
+        <v>147872.07</v>
       </c>
       <c r="G5" t="n">
-        <v>1282</v>
+        <v>104736.356</v>
       </c>
       <c r="H5" t="n">
-        <v>192826</v>
+        <v>710141.196</v>
       </c>
       <c r="I5" t="n">
-        <v>33011</v>
+        <v>138854.543</v>
       </c>
       <c r="J5" t="n">
-        <v>29189</v>
+        <v>315160.15</v>
       </c>
       <c r="K5" t="n">
-        <v>412760</v>
+        <v>1949989</v>
       </c>
       <c r="L5" t="n">
-        <v>34124</v>
+        <v>286370.741</v>
       </c>
       <c r="M5" t="n">
-        <v>5960</v>
+        <v>41701.168</v>
       </c>
       <c r="N5" t="n">
-        <v>490</v>
+        <v>4509.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117267</v>
+        <v>646939.885</v>
       </c>
       <c r="C6" t="n">
-        <v>4214</v>
+        <v>8493.040999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>65473</v>
+        <v>193255.684</v>
       </c>
       <c r="E6" t="n">
-        <v>443962</v>
+        <v>1312294.763</v>
       </c>
       <c r="F6" t="n">
-        <v>73986</v>
+        <v>172369.106</v>
       </c>
       <c r="G6" t="n">
-        <v>1529</v>
+        <v>82764.15700000001</v>
       </c>
       <c r="H6" t="n">
-        <v>252830</v>
+        <v>724197.412</v>
       </c>
       <c r="I6" t="n">
-        <v>50143</v>
+        <v>139708.404</v>
       </c>
       <c r="J6" t="n">
-        <v>47993</v>
+        <v>316755.738</v>
       </c>
       <c r="K6" t="n">
-        <v>561229</v>
+        <v>1959235</v>
       </c>
       <c r="L6" t="n">
-        <v>55358</v>
+        <v>269642.043</v>
       </c>
       <c r="M6" t="n">
-        <v>9154</v>
+        <v>46826.873</v>
       </c>
       <c r="N6" t="n">
-        <v>548</v>
+        <v>5222.191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>147714</v>
+        <v>472057.165417</v>
       </c>
       <c r="C7" t="n">
-        <v>3370</v>
+        <v>7482.852261</v>
       </c>
       <c r="D7" t="n">
-        <v>77734</v>
+        <v>171265.822999</v>
       </c>
       <c r="E7" t="n">
-        <v>512239</v>
+        <v>1207507.33217</v>
       </c>
       <c r="F7" t="n">
-        <v>81157</v>
+        <v>133011.031806</v>
       </c>
       <c r="G7" t="n">
-        <v>2008</v>
+        <v>86119.91878800001</v>
       </c>
       <c r="H7" t="n">
-        <v>290478</v>
+        <v>682418.062377</v>
       </c>
       <c r="I7" t="n">
-        <v>60862</v>
+        <v>134692.4962</v>
       </c>
       <c r="J7" t="n">
-        <v>63947</v>
+        <v>198589.034868</v>
       </c>
       <c r="K7" t="n">
-        <v>659953</v>
+        <v>1679564</v>
       </c>
       <c r="L7" t="n">
-        <v>70226</v>
+        <v>209709.876598</v>
       </c>
       <c r="M7" t="n">
-        <v>9388</v>
+        <v>50500.98368100001</v>
       </c>
       <c r="N7" t="n">
-        <v>783</v>
+        <v>5774.418009</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187128.569</v>
+        <v>441054.916</v>
       </c>
       <c r="C8" t="n">
-        <v>3936.437</v>
+        <v>6732.226</v>
       </c>
       <c r="D8" t="n">
-        <v>87046.841</v>
+        <v>164116.528</v>
       </c>
       <c r="E8" t="n">
-        <v>604332.299</v>
+        <v>1146871.303</v>
       </c>
       <c r="F8" t="n">
-        <v>86923.8</v>
+        <v>121919.98</v>
       </c>
       <c r="G8" t="n">
-        <v>2030.404</v>
+        <v>76868.09699999999</v>
       </c>
       <c r="H8" t="n">
-        <v>357020.746</v>
+        <v>657825.4570000001</v>
       </c>
       <c r="I8" t="n">
-        <v>71310.507</v>
+        <v>126141.241</v>
       </c>
       <c r="J8" t="n">
-        <v>89000.58900000001</v>
+        <v>176525.62</v>
       </c>
       <c r="K8" t="n">
-        <v>791461</v>
+        <v>1587926</v>
       </c>
       <c r="L8" t="n">
-        <v>83156.652</v>
+        <v>202544.71</v>
       </c>
       <c r="M8" t="n">
-        <v>9994.272000000001</v>
+        <v>49156.371</v>
       </c>
       <c r="N8" t="n">
-        <v>1040.618</v>
+        <v>6095.989</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>243085.441</v>
+        <v>579638.4300000001</v>
       </c>
       <c r="C9" t="n">
-        <v>7344.366</v>
+        <v>7678.426</v>
       </c>
       <c r="D9" t="n">
-        <v>107554.022</v>
+        <v>193731.471</v>
       </c>
       <c r="E9" t="n">
-        <v>712864.8199999999</v>
+        <v>1264154.51</v>
       </c>
       <c r="F9" t="n">
-        <v>102877.256</v>
+        <v>135147.269</v>
       </c>
       <c r="G9" t="n">
-        <v>2464.653</v>
+        <v>66078.856</v>
       </c>
       <c r="H9" t="n">
-        <v>412459.135</v>
+        <v>734865.042</v>
       </c>
       <c r="I9" t="n">
-        <v>87509.754</v>
+        <v>134331.872</v>
       </c>
       <c r="J9" t="n">
-        <v>104930.09</v>
+        <v>249617.494</v>
       </c>
       <c r="K9" t="n">
-        <v>956115</v>
+        <v>1843790</v>
       </c>
       <c r="L9" t="n">
-        <v>117910.225</v>
+        <v>261000.05</v>
       </c>
       <c r="M9" t="n">
-        <v>11499.623</v>
+        <v>54314.258</v>
       </c>
       <c r="N9" t="n">
-        <v>1401.138</v>
+        <v>7028.202</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>362394.71</v>
+        <v>701744.1</v>
       </c>
       <c r="C10" t="n">
-        <v>10486.363</v>
+        <v>7778.441</v>
       </c>
       <c r="D10" t="n">
-        <v>119187.83</v>
+        <v>223636.11</v>
       </c>
       <c r="E10" t="n">
-        <v>770167.452</v>
+        <v>1433989.783</v>
       </c>
       <c r="F10" t="n">
-        <v>107164.906</v>
+        <v>151350.691</v>
       </c>
       <c r="G10" t="n">
-        <v>4408.723</v>
+        <v>75606.855</v>
       </c>
       <c r="H10" t="n">
-        <v>441764.784</v>
+        <v>839656.461</v>
       </c>
       <c r="I10" t="n">
-        <v>97641.209</v>
+        <v>143739.665</v>
       </c>
       <c r="J10" t="n">
-        <v>169241.994</v>
+        <v>349356.167</v>
       </c>
       <c r="K10" t="n">
-        <v>1132562</v>
+        <v>2135750</v>
       </c>
       <c r="L10" t="n">
-        <v>166695.129</v>
+        <v>272143.65</v>
       </c>
       <c r="M10" t="n">
-        <v>14051.178</v>
+        <v>64800.884</v>
       </c>
       <c r="N10" t="n">
-        <v>1920.046</v>
+        <v>7664.959</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>289804.194</v>
+        <v>729952.34201</v>
       </c>
       <c r="C11" t="n">
-        <v>7639.065</v>
+        <v>9382.51381</v>
       </c>
       <c r="D11" t="n">
-        <v>112090.04</v>
+        <v>218732.975829</v>
       </c>
       <c r="E11" t="n">
-        <v>716119.002</v>
+        <v>1348456.64079</v>
       </c>
       <c r="F11" t="n">
-        <v>107739.087</v>
+        <v>140042.228987</v>
       </c>
       <c r="G11" t="n">
-        <v>3306.968</v>
+        <v>58830.86198</v>
       </c>
       <c r="H11" t="n">
-        <v>407796.84</v>
+        <v>786638.192391</v>
       </c>
       <c r="I11" t="n">
-        <v>85186.068</v>
+        <v>144212.381603</v>
       </c>
       <c r="J11" t="n">
-        <v>124037.598</v>
+        <v>347233.263527</v>
       </c>
       <c r="K11" t="n">
-        <v>1005923</v>
+        <v>2078410</v>
       </c>
       <c r="L11" t="n">
-        <v>141346.691</v>
+        <v>284940.700414</v>
       </c>
       <c r="M11" t="n">
-        <v>14827.193</v>
+        <v>80735.301894</v>
       </c>
       <c r="N11" t="n">
-        <v>1953.647</v>
+        <v>7660.562365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>433849.922</v>
+        <v>686907.499096</v>
       </c>
       <c r="C12" t="n">
-        <v>8740.324000000001</v>
+        <v>10654.808368</v>
       </c>
       <c r="D12" t="n">
-        <v>149699.773</v>
+        <v>213463.855334</v>
       </c>
       <c r="E12" t="n">
-        <v>962394.084</v>
+        <v>1379053.896556</v>
       </c>
       <c r="F12" t="n">
-        <v>131278.148</v>
+        <v>168757.387459</v>
       </c>
       <c r="G12" t="n">
-        <v>18435.024</v>
+        <v>22323.124177</v>
       </c>
       <c r="H12" t="n">
-        <v>549420.649</v>
+        <v>828536.922474</v>
       </c>
       <c r="I12" t="n">
-        <v>113560.489</v>
+        <v>145972.607112</v>
       </c>
       <c r="J12" t="n">
-        <v>188999.9</v>
+        <v>270069.032345</v>
       </c>
       <c r="K12" t="n">
-        <v>1396247</v>
+        <v>2065960</v>
       </c>
       <c r="L12" t="n">
-        <v>212111.239</v>
+        <v>301725.578202</v>
       </c>
       <c r="M12" t="n">
-        <v>21570.29</v>
+        <v>98254.306903</v>
       </c>
       <c r="N12" t="n">
-        <v>2428.17</v>
+        <v>6203.773278</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>604269</v>
+        <v>976631</v>
       </c>
       <c r="C13" t="n">
-        <v>11112</v>
+        <v>14578</v>
       </c>
       <c r="D13" t="n">
-        <v>181106</v>
+        <v>264078</v>
       </c>
       <c r="E13" t="n">
-        <v>1139215</v>
+        <v>1710512</v>
       </c>
       <c r="F13" t="n">
-        <v>150304</v>
+        <v>210828</v>
       </c>
       <c r="G13" t="n">
-        <v>49513</v>
+        <v>60413</v>
       </c>
       <c r="H13" t="n">
-        <v>630570</v>
+        <v>1005797</v>
       </c>
       <c r="I13" t="n">
-        <v>127722</v>
+        <v>169397</v>
       </c>
       <c r="J13" t="n">
-        <v>275776</v>
+        <v>405329</v>
       </c>
       <c r="K13" t="n">
-        <v>1743484</v>
+        <v>2687143</v>
       </c>
       <c r="L13" t="n">
-        <v>284923</v>
+        <v>426261</v>
       </c>
       <c r="M13" t="n">
-        <v>28774</v>
+        <v>122837</v>
       </c>
       <c r="N13" t="n">
-        <v>3685</v>
+        <v>7626</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>634934.183</v>
+        <v>1089675.870797</v>
       </c>
       <c r="C14" t="n">
-        <v>12527.041</v>
+        <v>12920.369005</v>
       </c>
       <c r="D14" t="n">
-        <v>179286.808</v>
+        <v>266422.378242</v>
       </c>
       <c r="E14" t="n">
-        <v>1183470.816</v>
+        <v>1626322.883227</v>
       </c>
       <c r="F14" t="n">
-        <v>145952.546</v>
+        <v>197908.753845</v>
       </c>
       <c r="G14" t="n">
-        <v>68772.02</v>
+        <v>84435.68942</v>
       </c>
       <c r="H14" t="n">
-        <v>652940.6800000001</v>
+        <v>942116.324818</v>
       </c>
       <c r="I14" t="n">
-        <v>136518.762</v>
+        <v>135439.736902</v>
       </c>
       <c r="J14" t="n">
-        <v>313084.909</v>
+        <v>535291.2315399999</v>
       </c>
       <c r="K14" t="n">
-        <v>1818405</v>
+        <v>2715998.754024</v>
       </c>
       <c r="L14" t="n">
-        <v>269659.516</v>
+        <v>403280.814123</v>
       </c>
       <c r="M14" t="n">
-        <v>35259.844</v>
+        <v>131113.985996</v>
       </c>
       <c r="N14" t="n">
-        <v>4402.873</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>658080.843</v>
-      </c>
-      <c r="C15" t="n">
-        <v>10339.354</v>
-      </c>
-      <c r="D15" t="n">
-        <v>190304.46</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1291908.625</v>
-      </c>
-      <c r="F15" t="n">
-        <v>147872.07</v>
-      </c>
-      <c r="G15" t="n">
-        <v>104736.356</v>
-      </c>
-      <c r="H15" t="n">
-        <v>710141.196</v>
-      </c>
-      <c r="I15" t="n">
-        <v>138854.543</v>
-      </c>
-      <c r="J15" t="n">
-        <v>315160.15</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1949989</v>
-      </c>
-      <c r="L15" t="n">
-        <v>286370.741</v>
-      </c>
-      <c r="M15" t="n">
-        <v>41701.168</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4509.43</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>646939.885</v>
-      </c>
-      <c r="C16" t="n">
-        <v>8493.040999999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>193255.684</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1312294.763</v>
-      </c>
-      <c r="F16" t="n">
-        <v>172369.106</v>
-      </c>
-      <c r="G16" t="n">
-        <v>82764.15700000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>724197.412</v>
-      </c>
-      <c r="I16" t="n">
-        <v>139708.404</v>
-      </c>
-      <c r="J16" t="n">
-        <v>316755.738</v>
-      </c>
-      <c r="K16" t="n">
-        <v>1959235</v>
-      </c>
-      <c r="L16" t="n">
-        <v>269642.043</v>
-      </c>
-      <c r="M16" t="n">
-        <v>46826.873</v>
-      </c>
-      <c r="N16" t="n">
-        <v>5222.191</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>472057.165417</v>
-      </c>
-      <c r="C17" t="n">
-        <v>7482.852261</v>
-      </c>
-      <c r="D17" t="n">
-        <v>171265.822999</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1207507.33217</v>
-      </c>
-      <c r="F17" t="n">
-        <v>133011.031806</v>
-      </c>
-      <c r="G17" t="n">
-        <v>86119.91878800001</v>
-      </c>
-      <c r="H17" t="n">
-        <v>682418.062377</v>
-      </c>
-      <c r="I17" t="n">
-        <v>134692.4962</v>
-      </c>
-      <c r="J17" t="n">
-        <v>198589.034868</v>
-      </c>
-      <c r="K17" t="n">
-        <v>1679564</v>
-      </c>
-      <c r="L17" t="n">
-        <v>209709.876598</v>
-      </c>
-      <c r="M17" t="n">
-        <v>50500.98368100001</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5774.418009</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>441054.916</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6732.226</v>
-      </c>
-      <c r="D18" t="n">
-        <v>164116.528</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1146871.303</v>
-      </c>
-      <c r="F18" t="n">
-        <v>121919.98</v>
-      </c>
-      <c r="G18" t="n">
-        <v>76868.09699999999</v>
-      </c>
-      <c r="H18" t="n">
-        <v>657825.4570000001</v>
-      </c>
-      <c r="I18" t="n">
-        <v>126141.241</v>
-      </c>
-      <c r="J18" t="n">
-        <v>176525.62</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1587926.219</v>
-      </c>
-      <c r="L18" t="n">
-        <v>202544.71</v>
-      </c>
-      <c r="M18" t="n">
-        <v>49156.371</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6095.989</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>579638.4300000001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7678.426</v>
-      </c>
-      <c r="D19" t="n">
-        <v>193731.471</v>
-      </c>
-      <c r="E19" t="n">
-        <v>1264154.51</v>
-      </c>
-      <c r="F19" t="n">
-        <v>135147.269</v>
-      </c>
-      <c r="G19" t="n">
-        <v>66078.856</v>
-      </c>
-      <c r="H19" t="n">
-        <v>734865.042</v>
-      </c>
-      <c r="I19" t="n">
-        <v>134331.872</v>
-      </c>
-      <c r="J19" t="n">
-        <v>249617.494</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1843793</v>
-      </c>
-      <c r="L19" t="n">
-        <v>261000.05</v>
-      </c>
-      <c r="M19" t="n">
-        <v>54314.258</v>
-      </c>
-      <c r="N19" t="n">
-        <v>7028.202</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>701744.1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7778.441</v>
-      </c>
-      <c r="D20" t="n">
-        <v>223636.11</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1433989.783</v>
-      </c>
-      <c r="F20" t="n">
-        <v>151350.691</v>
-      </c>
-      <c r="G20" t="n">
-        <v>75606.855</v>
-      </c>
-      <c r="H20" t="n">
-        <v>839656.461</v>
-      </c>
-      <c r="I20" t="n">
-        <v>143739.665</v>
-      </c>
-      <c r="J20" t="n">
-        <v>349356.167</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2135734</v>
-      </c>
-      <c r="L20" t="n">
-        <v>272143.65</v>
-      </c>
-      <c r="M20" t="n">
-        <v>64800.884</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7664.959</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>729952.34201</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9382.51381</v>
-      </c>
-      <c r="D21" t="n">
-        <v>218732.975829</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1348456.64079</v>
-      </c>
-      <c r="F21" t="n">
-        <v>140042.228987</v>
-      </c>
-      <c r="G21" t="n">
-        <v>58830.86198</v>
-      </c>
-      <c r="H21" t="n">
-        <v>786638.192391</v>
-      </c>
-      <c r="I21" t="n">
-        <v>144212.381603</v>
-      </c>
-      <c r="J21" t="n">
-        <v>347233.263527</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2078408.983196</v>
-      </c>
-      <c r="L21" t="n">
-        <v>284940.700414</v>
-      </c>
-      <c r="M21" t="n">
-        <v>80735.301894</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7660.562365</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>686907.499096</v>
-      </c>
-      <c r="C22" t="n">
-        <v>10654.808368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>213463.855334</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1379053.896556</v>
-      </c>
-      <c r="F22" t="n">
-        <v>168757.387459</v>
-      </c>
-      <c r="G22" t="n">
-        <v>22323.124177</v>
-      </c>
-      <c r="H22" t="n">
-        <v>828536.922474</v>
-      </c>
-      <c r="I22" t="n">
-        <v>145972.607112</v>
-      </c>
-      <c r="J22" t="n">
-        <v>270069.032345</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2065961.553773</v>
-      </c>
-      <c r="L22" t="n">
-        <v>301725.578202</v>
-      </c>
-      <c r="M22" t="n">
-        <v>98254.306903</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6203.773278</v>
+        <v>7069.470133</v>
       </c>
     </row>
   </sheetData>
